--- a/tests/test_data/test_output.xlsx
+++ b/tests/test_data/test_output.xlsx
@@ -451,8 +451,16 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>C1 (R1)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C2 (R1)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -460,11 +468,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>C2 (R1)</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -482,11 +486,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>C1 (R1)</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">

--- a/tests/test_data/test_output.xlsx
+++ b/tests/test_data/test_output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TestSheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestSheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,16 +451,8 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>C1 (R1)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C2 (R1)</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
